--- a/DATA/HLACLASSII_Alleles.xlsx
+++ b/DATA/HLACLASSII_Alleles.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osman.Yogurtcu\Documents\Projects\DonorCohortAnalysis\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{005405C1-A698-4006-8BA4-B64A419CA2F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" xr2:uid="{1C42FF16-3E9E-46F3-A4CE-C0F0C692B53F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="AllHLAs_DEC2018" sheetId="1" r:id="rId1"/>
@@ -17818,7 +17812,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -17893,10 +17887,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18203,18 +18197,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1543AE-3009-4A2B-98D6-CE0EDAA8D99C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -18324,7 +18318,7 @@
       <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>5865</v>
       </c>
     </row>
@@ -18350,7 +18344,7 @@
       <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -18374,7 +18368,7 @@
       <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -18398,7 +18392,7 @@
       <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -18422,7 +18416,7 @@
       <c r="G8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -18444,7 +18438,7 @@
       <c r="G9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -18466,7 +18460,7 @@
       <c r="G10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
@@ -18488,7 +18482,7 @@
       <c r="G11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -18510,7 +18504,7 @@
       <c r="G12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -18532,7 +18526,7 @@
       <c r="G13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -18554,7 +18548,7 @@
       <c r="G14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -18576,7 +18570,7 @@
       <c r="G15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -18598,7 +18592,7 @@
       <c r="G16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -18620,7 +18614,7 @@
       <c r="G17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
@@ -18642,7 +18636,7 @@
       <c r="G18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -18664,7 +18658,7 @@
       <c r="G19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -18686,7 +18680,7 @@
       <c r="G20" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
@@ -18708,7 +18702,7 @@
       <c r="G21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
@@ -18730,7 +18724,7 @@
       <c r="G22" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
@@ -18752,7 +18746,7 @@
       <c r="G23" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
@@ -18774,7 +18768,7 @@
       <c r="G24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
@@ -18796,7 +18790,7 @@
       <c r="G25" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
@@ -18818,7 +18812,7 @@
       <c r="G26" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
@@ -18840,7 +18834,7 @@
       <c r="G27" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
@@ -18862,7 +18856,7 @@
       <c r="G28" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
@@ -18884,7 +18878,7 @@
       <c r="G29" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
@@ -18906,7 +18900,7 @@
       <c r="G30" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
@@ -18928,7 +18922,7 @@
       <c r="G31" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
@@ -52008,11 +52002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DBCB80-6D07-4B3F-A4E9-BA88AA156AB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52023,50 +52017,50 @@
     <col min="12" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>5904</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>5905</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>5906</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>5907</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>5908</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5909</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5910</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>5911</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>5912</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>5913</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>5914</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>5915</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>5916</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>5917</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>5918</v>
       </c>
     </row>
@@ -52846,11 +52840,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA04FF4-5E17-43E0-88FF-031D968EBB62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52865,31 +52859,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>5904</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>5905</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>5906</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>5907</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>5908</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5909</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5910</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>5911</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>5912</v>
       </c>
     </row>
